--- a/biology/Botanique/Natalie_Böttner/Natalie_Böttner.xlsx
+++ b/biology/Botanique/Natalie_Böttner/Natalie_Böttner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Natalie_B%C3%B6ttner</t>
+          <t>Natalie_Böttner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Natalie Böttner' est un cultivar de rosier obtenu en 1909 par le rosiériste allemand Johannes Böttner[1]. Il est issu du croisement 'Frau Karl Druschki' (hybride remontant, Lambert, 1895) x 'Goldelse' (hybride de thé, Hinner, 1902)[2].
+'Natalie Böttner' est un cultivar de rosier obtenu en 1909 par le rosiériste allemand Johannes Böttner. Il est issu du croisement 'Frau Karl Druschki' (hybride remontant, Lambert, 1895) x 'Goldelse' (hybride de thé, Hinner, 1902).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natalie_B%C3%B6ttner</t>
+          <t>Natalie_Böttner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé a obtenu un certain succès au début du XXe siècle grâce à la couleur jaune pâle aux nuances crème de ses fleurs, couleur encore rare à l'époque[3] et à ses qualités extrêmement florifères que l'on retrouve chez ses ascendants[4]. Le cœur des fleurs est d'un jaune plus soutenu et les pétales deviennent crème au fur et à mesure. Elles sont plutôt grosses, doubles (17-25 pétales), fleurissant en solitaire sur un long pédoncule, ou en petits bouquets, peu parfumées. La floraison est légèrement remontante[2].
-Le buisson est fort vigoureux[5]. Cette variété est bien résistante au froid (-20°)[2]. Il semble qu'elle ne soit plus commercialisée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé a obtenu un certain succès au début du XXe siècle grâce à la couleur jaune pâle aux nuances crème de ses fleurs, couleur encore rare à l'époque et à ses qualités extrêmement florifères que l'on retrouve chez ses ascendants. Le cœur des fleurs est d'un jaune plus soutenu et les pétales deviennent crème au fur et à mesure. Elles sont plutôt grosses, doubles (17-25 pétales), fleurissant en solitaire sur un long pédoncule, ou en petits bouquets, peu parfumées. La floraison est légèrement remontante.
+Le buisson est fort vigoureux. Cette variété est bien résistante au froid (-20°). Il semble qu'elle ne soit plus commercialisée.
 </t>
         </is>
       </c>
